--- a/.0 SGWH-RCA/.0.1 Inicio/0.1.2.-Planifiacion/0.1.2.4.-Gestion Costos/Puntos de Funcion SWGH-RCA.xlsx
+++ b/.0 SGWH-RCA/.0.1 Inicio/0.1.2.-Planifiacion/0.1.2.4.-Gestion Costos/Puntos de Funcion SWGH-RCA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos gomez\Septimo Semestre\Administracion Proyectos Software\HotelRCA\DOCUMENTACION Hotel RCA\GuiaPMBOK\2.-Planifiacion\4.-Gestion Costos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos gomez\Septimo Semestre\Administracion Proyectos Software\HotelRCA\.0 SGWH-RCA\.0.1 Inicio\0.1.2.-Planifiacion\0.1.2.4.-Gestion Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4635" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4635" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Limites del Sistema" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,11 @@
     <sheet name="ILF-ELF-EI-EO-EQ" sheetId="1" r:id="rId6"/>
     <sheet name="Puntos de Funcion" sheetId="6" r:id="rId7"/>
     <sheet name="Nivel Influencia" sheetId="7" r:id="rId8"/>
+    <sheet name="Curva " sheetId="9" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="OLE_LINK2" localSheetId="1">ILF!$A$4</definedName>
   </definedNames>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="248">
   <si>
     <t>ILF</t>
   </si>
@@ -223,9 +227,6 @@
     <t>Aporte</t>
   </si>
   <si>
-    <t>Req (1.4)</t>
-  </si>
-  <si>
     <t>Puntos de fusion ajustados</t>
   </si>
   <si>
@@ -284,127 +285,19 @@
     <t>Puntos de fusion BRUTOS</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cliente </t>
   </si>
   <si>
-    <t>Horarios</t>
-  </si>
-  <si>
-    <t>Chofer</t>
-  </si>
-  <si>
-    <t>Multas</t>
-  </si>
-  <si>
-    <t>Encomiendas</t>
-  </si>
-  <si>
-    <t>Impresión Boletos</t>
-  </si>
-  <si>
-    <t>Factura Multa</t>
-  </si>
-  <si>
-    <t>Ingresar usuario</t>
-  </si>
-  <si>
     <t>Ingresar cliente</t>
   </si>
   <si>
-    <t>Ingresar horarios</t>
-  </si>
-  <si>
-    <t>modifica horario</t>
-  </si>
-  <si>
-    <t>eliminar horario</t>
-  </si>
-  <si>
-    <t>Ingresar chofer</t>
-  </si>
-  <si>
-    <t>modifica chofer</t>
-  </si>
-  <si>
-    <t>eliminar chofer</t>
-  </si>
-  <si>
-    <t>Ingresar multa</t>
-  </si>
-  <si>
-    <t>modifica multa</t>
-  </si>
-  <si>
-    <t>eliminar multa</t>
-  </si>
-  <si>
-    <t>Ingresar encomienda</t>
-  </si>
-  <si>
-    <t>modifica encomienda</t>
-  </si>
-  <si>
-    <t>eliminar encomienda</t>
-  </si>
-  <si>
-    <t>Factura Encomienda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baja </t>
   </si>
   <si>
-    <t>Modifica cliente</t>
-  </si>
-  <si>
     <t>Eliminar cliente</t>
   </si>
   <si>
-    <t>Modifica usuario</t>
-  </si>
-  <si>
-    <t>Eliminar usuario</t>
-  </si>
-  <si>
-    <t>Generar Viaje</t>
-  </si>
-  <si>
-    <t>Generar Reservacion</t>
-  </si>
-  <si>
-    <t>Impresión Factura</t>
-  </si>
-  <si>
-    <t>Generar Boleto</t>
-  </si>
-  <si>
-    <t>Eliminar Boleto</t>
-  </si>
-  <si>
-    <t>Reporte Usuario</t>
-  </si>
-  <si>
     <t>Reporte Cliente</t>
-  </si>
-  <si>
-    <t>Reporte Viajes</t>
-  </si>
-  <si>
-    <t>Reporte Choferes</t>
-  </si>
-  <si>
-    <t>Reporte Multas</t>
-  </si>
-  <si>
-    <t>Reporte Encommiendas</t>
-  </si>
-  <si>
-    <t>Reporte Control Activo/Pasivo</t>
-  </si>
-  <si>
-    <t>Reporte de Boletos</t>
   </si>
   <si>
     <t>FICHERO LOGICO INTERNOS</t>
@@ -486,100 +379,19 @@
     <t>ALTA 7</t>
   </si>
   <si>
-    <t>Salida en Pantalla de Usuario (Entrada)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Usuario (Salida)</t>
-  </si>
-  <si>
     <t>Salida en Pantalla de Cliente (Entrada)</t>
   </si>
   <si>
     <t>Salida en Pantalla de Cliente (Salida)</t>
   </si>
   <si>
-    <t>Req(2.4)</t>
-  </si>
-  <si>
     <t>Reporte Reservacion</t>
   </si>
   <si>
-    <t>Salida en Pantalla de Horario(Entrada)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Horario(Salida)</t>
-  </si>
-  <si>
-    <t>Req (5.4)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Choferes(Entrada)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Choferes(Salida)</t>
-  </si>
-  <si>
-    <t>Req (6.4)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Multas(Entrada)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Multas(Salida)</t>
-  </si>
-  <si>
-    <t>Req (7.4)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Encomiendas(Entrada)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Encomiendas(Salida)</t>
-  </si>
-  <si>
-    <t>Req (8.4)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Boletos(Entrada)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Boletos(Salida)</t>
-  </si>
-  <si>
-    <t>Req(9.1.3)</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Viajes</t>
-  </si>
-  <si>
     <t>Reservacion</t>
   </si>
   <si>
-    <t>Control Activo/Pasivo</t>
-  </si>
-  <si>
-    <t>Listar Choferes</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Control Activo_Pasivo (Entrada)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Control Activo_Pasivo (Salida)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Reservacion  (Entrada)</t>
-  </si>
-  <si>
     <t>Salida en Pantalla de Reservacion (Salida)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Viajes (Entrada)</t>
-  </si>
-  <si>
-    <t>Salida en Pantalla de Viajes (Salida)</t>
   </si>
   <si>
     <t>Empleado</t>
@@ -963,14 +775,161 @@
     <t>Reporte Productos</t>
   </si>
   <si>
-    <t>RF()</t>
+    <t>RF(1.1.2)</t>
+  </si>
+  <si>
+    <t>RF(1.2.2)</t>
+  </si>
+  <si>
+    <t>RF(1.3.2)</t>
+  </si>
+  <si>
+    <t>RF(1.4.2)</t>
+  </si>
+  <si>
+    <t>RF(2.1.2)</t>
+  </si>
+  <si>
+    <t>RF(2.4.2)</t>
+  </si>
+  <si>
+    <t>RF(2.5.2)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Reservacion (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Empleado (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Empleado (Salida)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Habitacion  (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Habitacion (Salida)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Categoria (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Categoria (Salida)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Productos (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Productos (Salida)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Servicios (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Servicios (Salida)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Factura (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Factura (Salida)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Ingresos (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Ingresos (Salida)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Egresos (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Egresos (Salida)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Datos Empresa (Entrada)</t>
+  </si>
+  <si>
+    <t>Salida en Pantalla de Datos Empresa (Salida)</t>
+  </si>
+  <si>
+    <t>RF(1.1.4)</t>
+  </si>
+  <si>
+    <t>RF(1.2.4)</t>
+  </si>
+  <si>
+    <t>RF(1.3.4)</t>
+  </si>
+  <si>
+    <t>RF(1.4.4)</t>
+  </si>
+  <si>
+    <t>RF(1.5.4)</t>
+  </si>
+  <si>
+    <t>RF(2.1.4)</t>
+  </si>
+  <si>
+    <t>RF(2.2.4)</t>
+  </si>
+  <si>
+    <t>RF(2.4.3)</t>
+  </si>
+  <si>
+    <t>RF(2.5.3)</t>
+  </si>
+  <si>
+    <t>RF(3.1.3)</t>
+  </si>
+  <si>
+    <t>TARIFAS</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Programador</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2 </t>
+  </si>
+  <si>
+    <t>Anexos 19</t>
+  </si>
+  <si>
+    <t>Anexos 12</t>
+  </si>
+  <si>
+    <t>Anexos 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVERSION (S. ACTUAL) </t>
+  </si>
+  <si>
+    <t>EXPLOTACION (S. ACTUAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVERSION (S. PROPUESTO) </t>
+  </si>
+  <si>
+    <t>EXPLOTACION (S. PROPUESTO)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,8 +1102,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,6 +1311,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1464,10 +1454,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1681,15 +1673,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1697,9 +1680,6 @@
     <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1731,9 +1711,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1743,39 +1720,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1788,12 +1741,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1863,6 +1810,9 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1908,41 +1858,92 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1956,6 +1957,464 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>PUNTO DE EQUILIBRIO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]CALCULO DE FACTIBILIDAD ECONOMI'!$B$9:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]CALCULO DE FACTIBILIDAD ECONOMI'!$C$9:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5990.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>serie2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]CALCULO DE FACTIBILIDAD ECONOMI'!$B$11:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]CALCULO DE FACTIBILIDAD ECONOMI'!$C$11:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>34822.660000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="242555536"/>
+        <c:axId val="242549936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="242555536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242549936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="242549936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242555536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ILF"/>
+      <sheetName val="EI"/>
+      <sheetName val="EO"/>
+      <sheetName val="EQ"/>
+      <sheetName val="ILF-EI-EO-EQ"/>
+      <sheetName val="Puntos de Funcion "/>
+      <sheetName val="Nivel Influencia"/>
+      <sheetName val="Calculo Total"/>
+      <sheetName val="CALCULO DE FACTIBILIDAD ECONOMI"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="9">
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>1600</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>12</v>
+          </cell>
+          <cell r="C10">
+            <v>5990.4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>34822.660000000003</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>12</v>
+          </cell>
+          <cell r="C12">
+            <v>912</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2260,174 +2719,174 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>124</v>
+      <c r="B3" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>121</v>
+      <c r="B4" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>126</v>
+      <c r="B5" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="95" t="s">
-        <v>126</v>
+      <c r="B6" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="84"/>
     </row>
     <row r="9" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>130</v>
+      <c r="B9" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="95" t="s">
-        <v>132</v>
+      <c r="B10" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>133</v>
+      <c r="B11" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>133</v>
+      <c r="B12" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>138</v>
+      <c r="B15" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="95" t="s">
-        <v>140</v>
+      <c r="B16" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="95" t="s">
-        <v>141</v>
+      <c r="B17" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>141</v>
+      <c r="B18" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2439,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,15 +2913,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
@@ -2481,7 +2940,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="86" t="s">
         <v>3</v>
@@ -2489,13 +2948,13 @@
     </row>
     <row r="5" spans="1:7" s="9" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="D5" s="13">
         <v>5</v>
@@ -2512,13 +2971,13 @@
     </row>
     <row r="6" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D6" s="13">
         <v>10</v>
@@ -2535,13 +2994,13 @@
     </row>
     <row r="7" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="D7" s="13">
         <v>7</v>
@@ -2558,13 +3017,13 @@
     </row>
     <row r="8" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="D8" s="13">
         <v>5</v>
@@ -2576,18 +3035,18 @@
         <v>7</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -2604,13 +3063,13 @@
     </row>
     <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
@@ -2627,13 +3086,13 @@
     </row>
     <row r="11" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
@@ -2650,13 +3109,13 @@
     </row>
     <row r="12" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="D12" s="13">
         <v>8</v>
@@ -2671,72 +3130,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="120" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="122" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="124">
+    <row r="13" spans="1:7" s="107" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="111">
         <v>6</v>
       </c>
-      <c r="E13" s="124">
-        <v>1</v>
-      </c>
-      <c r="F13" s="124">
+      <c r="E13" s="111">
+        <v>1</v>
+      </c>
+      <c r="F13" s="111">
         <v>7</v>
       </c>
-      <c r="G13" s="124" t="s">
-        <v>98</v>
+      <c r="G13" s="111" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="122" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="124">
+      <c r="A14" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="111">
         <v>8</v>
       </c>
-      <c r="E14" s="124">
+      <c r="E14" s="111">
         <v>2</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="111">
         <v>7</v>
       </c>
-      <c r="G14" s="124" t="s">
-        <v>98</v>
+      <c r="G14" s="111" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="124">
-        <v>4</v>
-      </c>
-      <c r="E15" s="124">
-        <v>1</v>
-      </c>
-      <c r="F15" s="124">
+      <c r="A15" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="111">
+        <v>4</v>
+      </c>
+      <c r="E15" s="111">
+        <v>1</v>
+      </c>
+      <c r="F15" s="111">
         <v>7</v>
       </c>
-      <c r="G15" s="124" t="s">
+      <c r="G15" s="111" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2777,7 +3236,7 @@
   <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F5" activeCellId="2" sqref="B5:B31 C5:D31 F5:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,7 +3276,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>54</v>
@@ -2831,10 +3290,10 @@
     </row>
     <row r="5" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="C5" s="78">
         <v>6</v>
@@ -2842,7 +3301,7 @@
       <c r="D5" s="78">
         <v>2</v>
       </c>
-      <c r="E5" s="141">
+      <c r="E5" s="126">
         <v>4</v>
       </c>
       <c r="F5" s="78" t="s">
@@ -2851,10 +3310,10 @@
     </row>
     <row r="6" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="C6" s="78">
         <v>6</v>
@@ -2862,20 +3321,20 @@
       <c r="D6" s="78">
         <v>2</v>
       </c>
-      <c r="E6" s="142">
+      <c r="E6" s="127">
         <v>4</v>
       </c>
       <c r="F6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="90"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:9" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="C7" s="78">
         <v>6</v>
@@ -2883,91 +3342,91 @@
       <c r="D7" s="78">
         <v>2</v>
       </c>
-      <c r="E7" s="143">
+      <c r="E7" s="128">
         <v>4</v>
       </c>
       <c r="F7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
     </row>
     <row r="8" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="136">
+      <c r="A8" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="121">
         <v>11</v>
       </c>
-      <c r="D8" s="136">
-        <v>1</v>
-      </c>
-      <c r="E8" s="144">
+      <c r="D8" s="121">
+        <v>1</v>
+      </c>
+      <c r="E8" s="129">
         <v>3</v>
       </c>
-      <c r="F8" s="136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
+      <c r="F8" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
     </row>
     <row r="9" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="135" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="136">
+      <c r="A9" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="121">
         <v>11</v>
       </c>
-      <c r="D9" s="136">
-        <v>1</v>
-      </c>
-      <c r="E9" s="144">
+      <c r="D9" s="121">
+        <v>1</v>
+      </c>
+      <c r="E9" s="129">
         <v>3</v>
       </c>
-      <c r="F9" s="136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
+      <c r="F9" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
     </row>
     <row r="10" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="136">
+      <c r="A10" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="121">
         <v>11</v>
       </c>
-      <c r="D10" s="136">
-        <v>1</v>
-      </c>
-      <c r="E10" s="144">
+      <c r="D10" s="121">
+        <v>1</v>
+      </c>
+      <c r="E10" s="129">
         <v>3</v>
       </c>
-      <c r="F10" s="136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
+      <c r="F10" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
     </row>
     <row r="11" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="C11" s="78">
         <v>8</v>
@@ -2975,22 +3434,22 @@
       <c r="D11" s="78">
         <v>1</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E11" s="127">
         <v>3</v>
       </c>
       <c r="F11" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
     </row>
     <row r="12" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="C12" s="78">
         <v>8</v>
@@ -2998,22 +3457,22 @@
       <c r="D12" s="78">
         <v>1</v>
       </c>
-      <c r="E12" s="142">
+      <c r="E12" s="127">
         <v>3</v>
       </c>
       <c r="F12" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
     </row>
     <row r="13" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="C13" s="78">
         <v>8</v>
@@ -3021,91 +3480,91 @@
       <c r="D13" s="78">
         <v>1</v>
       </c>
-      <c r="E13" s="142">
+      <c r="E13" s="127">
         <v>3</v>
       </c>
       <c r="F13" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
     </row>
     <row r="14" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="135" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="136">
+        <v>175</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="121">
         <v>6</v>
       </c>
-      <c r="D14" s="136">
+      <c r="D14" s="121">
         <v>2</v>
       </c>
-      <c r="E14" s="144">
-        <v>4</v>
-      </c>
-      <c r="F14" s="136" t="s">
+      <c r="E14" s="129">
+        <v>4</v>
+      </c>
+      <c r="F14" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
     </row>
     <row r="15" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="136">
+        <v>176</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="121">
         <v>6</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="121">
         <v>2</v>
       </c>
-      <c r="E15" s="144">
-        <v>4</v>
-      </c>
-      <c r="F15" s="136" t="s">
+      <c r="E15" s="129">
+        <v>4</v>
+      </c>
+      <c r="F15" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="134" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="136">
+        <v>177</v>
+      </c>
+      <c r="B16" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="121">
         <v>6</v>
       </c>
-      <c r="D16" s="136">
+      <c r="D16" s="121">
         <v>2</v>
       </c>
-      <c r="E16" s="144">
-        <v>4</v>
-      </c>
-      <c r="F16" s="136" t="s">
+      <c r="E16" s="129">
+        <v>4</v>
+      </c>
+      <c r="F16" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="C17" s="78">
         <v>3</v>
@@ -3113,22 +3572,22 @@
       <c r="D17" s="78">
         <v>1</v>
       </c>
-      <c r="E17" s="142">
+      <c r="E17" s="127">
         <v>3</v>
       </c>
       <c r="F17" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
     </row>
     <row r="18" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="C18" s="78">
         <v>3</v>
@@ -3136,22 +3595,22 @@
       <c r="D18" s="78">
         <v>1</v>
       </c>
-      <c r="E18" s="142">
+      <c r="E18" s="127">
         <v>3</v>
       </c>
       <c r="F18" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
     </row>
     <row r="19" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="C19" s="78">
         <v>3</v>
@@ -3159,91 +3618,91 @@
       <c r="D19" s="78">
         <v>1</v>
       </c>
-      <c r="E19" s="142">
+      <c r="E19" s="127">
         <v>3</v>
       </c>
       <c r="F19" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
     </row>
     <row r="20" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="136">
+        <v>181</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="121">
         <v>6</v>
       </c>
-      <c r="D20" s="136">
-        <v>1</v>
-      </c>
-      <c r="E20" s="144">
+      <c r="D20" s="121">
+        <v>1</v>
+      </c>
+      <c r="E20" s="129">
         <v>3</v>
       </c>
-      <c r="F20" s="136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
+      <c r="F20" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
     </row>
     <row r="21" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="137" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="136">
+        <v>182</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="121">
         <v>6</v>
       </c>
-      <c r="D21" s="136">
-        <v>1</v>
-      </c>
-      <c r="E21" s="144">
+      <c r="D21" s="121">
+        <v>1</v>
+      </c>
+      <c r="E21" s="129">
         <v>3</v>
       </c>
-      <c r="F21" s="136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
+      <c r="F21" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="136">
+        <v>183</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="121">
         <v>6</v>
       </c>
-      <c r="D22" s="136">
-        <v>1</v>
-      </c>
-      <c r="E22" s="144">
+      <c r="D22" s="121">
+        <v>1</v>
+      </c>
+      <c r="E22" s="129">
         <v>3</v>
       </c>
-      <c r="F22" s="136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
+      <c r="F22" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
     </row>
     <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C23" s="78">
         <v>6</v>
@@ -3251,114 +3710,114 @@
       <c r="D23" s="78">
         <v>2</v>
       </c>
-      <c r="E23" s="141">
+      <c r="E23" s="126">
         <v>4</v>
       </c>
       <c r="F23" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
     </row>
     <row r="24" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" s="143">
+        <v>158</v>
+      </c>
+      <c r="C24" s="128">
         <v>6</v>
       </c>
-      <c r="D24" s="143">
+      <c r="D24" s="128">
         <v>2</v>
       </c>
-      <c r="E24" s="142">
+      <c r="E24" s="127">
         <v>4</v>
       </c>
       <c r="F24" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
     </row>
     <row r="25" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="141">
+        <v>159</v>
+      </c>
+      <c r="C25" s="126">
         <v>6</v>
       </c>
-      <c r="D25" s="141">
+      <c r="D25" s="126">
         <v>2</v>
       </c>
-      <c r="E25" s="143">
+      <c r="E25" s="128">
         <v>4</v>
       </c>
       <c r="F25" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="135" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="145">
+        <v>187</v>
+      </c>
+      <c r="B26" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="130">
         <v>9</v>
       </c>
-      <c r="D26" s="144">
+      <c r="D26" s="129">
         <v>3</v>
       </c>
-      <c r="E26" s="144">
-        <v>4</v>
-      </c>
-      <c r="F26" s="136" t="s">
+      <c r="E26" s="129">
+        <v>4</v>
+      </c>
+      <c r="F26" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
     </row>
     <row r="27" spans="1:9" s="70" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="137" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="146">
+        <v>188</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="131">
         <v>9</v>
       </c>
-      <c r="D27" s="146">
+      <c r="D27" s="131">
         <v>3</v>
       </c>
-      <c r="E27" s="144">
-        <v>4</v>
-      </c>
-      <c r="F27" s="136" t="s">
+      <c r="E27" s="129">
+        <v>4</v>
+      </c>
+      <c r="F27" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="140" t="s">
-        <v>226</v>
+        <v>189</v>
+      </c>
+      <c r="B28" s="125" t="s">
+        <v>162</v>
       </c>
       <c r="C28" s="78">
         <v>7</v>
@@ -3369,8 +3828,8 @@
       <c r="E28" s="78">
         <v>3</v>
       </c>
-      <c r="F28" s="149" t="s">
-        <v>98</v>
+      <c r="F28" s="134" t="s">
+        <v>76</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -3378,22 +3837,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="147">
+        <v>190</v>
+      </c>
+      <c r="B29" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="132">
         <v>9</v>
       </c>
-      <c r="D29" s="147">
-        <v>1</v>
-      </c>
-      <c r="E29" s="147">
+      <c r="D29" s="132">
+        <v>1</v>
+      </c>
+      <c r="E29" s="132">
         <v>3</v>
       </c>
-      <c r="F29" s="150" t="s">
-        <v>98</v>
+      <c r="F29" s="135" t="s">
+        <v>76</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -3401,22 +3860,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" s="139" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="148">
+        <v>191</v>
+      </c>
+      <c r="B30" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="133">
         <v>5</v>
       </c>
-      <c r="D30" s="148">
-        <v>1</v>
-      </c>
-      <c r="E30" s="148">
+      <c r="D30" s="133">
+        <v>1</v>
+      </c>
+      <c r="E30" s="133">
         <v>3</v>
       </c>
-      <c r="F30" s="149" t="s">
-        <v>98</v>
+      <c r="F30" s="134" t="s">
+        <v>76</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -3424,22 +3883,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="139" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="148">
+        <v>192</v>
+      </c>
+      <c r="B31" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="133">
         <v>5</v>
       </c>
-      <c r="D31" s="148">
-        <v>1</v>
-      </c>
-      <c r="E31" s="148">
+      <c r="D31" s="133">
+        <v>1</v>
+      </c>
+      <c r="E31" s="133">
         <v>3</v>
       </c>
-      <c r="F31" s="149" t="s">
-        <v>98</v>
+      <c r="F31" s="134" t="s">
+        <v>76</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -3522,7 +3981,7 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A12"/>
+      <selection activeCell="G6" activeCellId="2" sqref="B6:B12 D6:E12 G6:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,89 +3992,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="153" t="s">
+      <c r="F4" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="139" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
     </row>
     <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="78">
+        <v>7</v>
+      </c>
+      <c r="E6" s="78">
+        <v>2</v>
+      </c>
+      <c r="F6" s="78">
+        <v>4</v>
+      </c>
+      <c r="G6" s="78" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="78">
-        <v>1</v>
-      </c>
-      <c r="F6" s="78">
-        <v>4</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="78">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7" s="78">
         <v>1</v>
       </c>
       <c r="F7" s="78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="78" t="s">
         <v>4</v>
@@ -3623,22 +4082,22 @@
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="91" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="78">
         <v>2</v>
       </c>
       <c r="F8" s="78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="78" t="s">
         <v>9</v>
@@ -3646,22 +4105,22 @@
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="78">
         <v>2</v>
       </c>
       <c r="F9" s="78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="78" t="s">
         <v>9</v>
@@ -3669,27 +4128,35 @@
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
+      <c r="D10" s="78">
+        <v>7</v>
+      </c>
+      <c r="E10" s="78">
+        <v>1</v>
+      </c>
+      <c r="F10" s="78">
+        <v>3</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="78">
@@ -3699,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="78" t="s">
         <v>4</v>
@@ -3707,25 +4174,25 @@
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3770,7 +4237,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G5" activeCellId="2" sqref="B5:B26 D5:E26 G5:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,15 +4248,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
@@ -3808,483 +4275,569 @@
         <v>19</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="104" t="s">
+      <c r="A5" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="105">
+      <c r="D5" s="100">
+        <v>7</v>
+      </c>
+      <c r="E5" s="100">
         <v>2</v>
       </c>
-      <c r="E5" s="105">
-        <v>1</v>
-      </c>
-      <c r="F5" s="105">
+      <c r="F5" s="100">
         <v>3</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="104" t="s">
+      <c r="A6" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="100">
+        <v>7</v>
+      </c>
+      <c r="E6" s="100">
+        <v>2</v>
+      </c>
+      <c r="F6" s="100">
+        <v>3</v>
+      </c>
+      <c r="G6" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="103">
+        <v>12</v>
+      </c>
+      <c r="E7" s="103">
+        <v>1</v>
+      </c>
+      <c r="F7" s="103">
+        <v>3</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="103">
+        <v>12</v>
+      </c>
+      <c r="E8" s="103">
+        <v>1</v>
+      </c>
+      <c r="F8" s="103">
+        <v>3</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="100">
+        <v>9</v>
+      </c>
+      <c r="E9" s="100">
+        <v>1</v>
+      </c>
+      <c r="F9" s="100">
+        <v>3</v>
+      </c>
+      <c r="G9" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="100">
+        <v>9</v>
+      </c>
+      <c r="E10" s="100">
+        <v>1</v>
+      </c>
+      <c r="F10" s="100">
+        <v>3</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="103">
+        <v>7</v>
+      </c>
+      <c r="E11" s="103">
+        <v>2</v>
+      </c>
+      <c r="F11" s="103">
+        <v>3</v>
+      </c>
+      <c r="G11" s="103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="103">
+        <v>7</v>
+      </c>
+      <c r="E12" s="103">
+        <v>2</v>
+      </c>
+      <c r="F12" s="103">
+        <v>3</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="100">
+        <v>4</v>
+      </c>
+      <c r="E13" s="100">
+        <v>1</v>
+      </c>
+      <c r="F13" s="100">
+        <v>3</v>
+      </c>
+      <c r="G13" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="100">
+        <v>4</v>
+      </c>
+      <c r="E14" s="100">
+        <v>1</v>
+      </c>
+      <c r="F14" s="100">
+        <v>3</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="103">
+        <v>7</v>
+      </c>
+      <c r="E15" s="103">
+        <v>1</v>
+      </c>
+      <c r="F15" s="103">
+        <v>3</v>
+      </c>
+      <c r="G15" s="103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="103">
+        <v>7</v>
+      </c>
+      <c r="E16" s="103">
+        <v>1</v>
+      </c>
+      <c r="F16" s="103">
+        <v>3</v>
+      </c>
+      <c r="G16" s="103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="100">
+        <v>7</v>
+      </c>
+      <c r="E17" s="100">
+        <v>2</v>
+      </c>
+      <c r="F17" s="100">
+        <v>3</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="100">
+        <v>7</v>
+      </c>
+      <c r="E18" s="100">
+        <v>2</v>
+      </c>
+      <c r="F18" s="100">
+        <v>3</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="103">
+        <v>10</v>
+      </c>
+      <c r="E19" s="103">
+        <v>3</v>
+      </c>
+      <c r="F19" s="103">
+        <v>4</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="103">
+        <v>10</v>
+      </c>
+      <c r="E20" s="103">
+        <v>3</v>
+      </c>
+      <c r="F20" s="103">
+        <v>4</v>
+      </c>
+      <c r="G20" s="103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="100">
         <v>8</v>
       </c>
-      <c r="E6" s="105">
-        <v>1</v>
-      </c>
-      <c r="F6" s="105">
+      <c r="E21" s="100">
+        <v>1</v>
+      </c>
+      <c r="F21" s="100">
         <v>3</v>
       </c>
-      <c r="G6" s="105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="108" t="s">
+      <c r="G21" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="109">
-        <v>2</v>
-      </c>
-      <c r="E7" s="109">
-        <v>1</v>
-      </c>
-      <c r="F7" s="109">
+      <c r="D22" s="105">
+        <v>8</v>
+      </c>
+      <c r="E22" s="105">
+        <v>1</v>
+      </c>
+      <c r="F22" s="105">
         <v>3</v>
       </c>
-      <c r="G7" s="109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="108" t="s">
+      <c r="G22" s="105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D23" s="103">
+        <v>10</v>
+      </c>
+      <c r="E23" s="103">
+        <v>1</v>
+      </c>
+      <c r="F23" s="103">
+        <v>3</v>
+      </c>
+      <c r="G23" s="103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="113">
+        <v>10</v>
+      </c>
+      <c r="E24" s="113">
+        <v>1</v>
+      </c>
+      <c r="F24" s="113">
+        <v>3</v>
+      </c>
+      <c r="G24" s="113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="100">
         <v>6</v>
       </c>
-      <c r="E8" s="109">
-        <v>1</v>
-      </c>
-      <c r="F8" s="109">
+      <c r="E25" s="100">
+        <v>1</v>
+      </c>
+      <c r="F25" s="100">
         <v>3</v>
       </c>
-      <c r="G8" s="109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="112" t="s">
+      <c r="G25" s="100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-    </row>
-    <row r="10" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-    </row>
-    <row r="11" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-    </row>
-    <row r="12" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-    </row>
-    <row r="13" spans="1:7" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="105">
-        <v>2</v>
-      </c>
-      <c r="E13" s="105">
-        <v>1</v>
-      </c>
-      <c r="F13" s="105">
+      <c r="D26" s="105">
+        <v>6</v>
+      </c>
+      <c r="E26" s="105">
+        <v>1</v>
+      </c>
+      <c r="F26" s="105">
         <v>3</v>
       </c>
-      <c r="G13" s="105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="105">
-        <v>6</v>
-      </c>
-      <c r="E14" s="105">
-        <v>1</v>
-      </c>
-      <c r="F14" s="105">
-        <v>3</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="109">
-        <v>2</v>
-      </c>
-      <c r="E15" s="109">
-        <v>1</v>
-      </c>
-      <c r="F15" s="109">
-        <v>3</v>
-      </c>
-      <c r="G15" s="109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="109">
-        <v>12</v>
-      </c>
-      <c r="E16" s="109">
-        <v>1</v>
-      </c>
-      <c r="F16" s="109">
-        <v>3</v>
-      </c>
-      <c r="G16" s="109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="105">
-        <v>2</v>
-      </c>
-      <c r="E17" s="105">
-        <v>1</v>
-      </c>
-      <c r="F17" s="105">
-        <v>3</v>
-      </c>
-      <c r="G17" s="105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="105">
-        <v>6</v>
-      </c>
-      <c r="E18" s="105">
-        <v>2</v>
-      </c>
-      <c r="F18" s="105">
-        <v>4</v>
-      </c>
-      <c r="G18" s="105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="109">
-        <v>2</v>
-      </c>
-      <c r="E19" s="109">
-        <v>1</v>
-      </c>
-      <c r="F19" s="109">
-        <v>3</v>
-      </c>
-      <c r="G19" s="109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="109">
-        <v>12</v>
-      </c>
-      <c r="E20" s="109">
-        <v>2</v>
-      </c>
-      <c r="F20" s="109">
-        <v>4</v>
-      </c>
-      <c r="G20" s="109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="105">
-        <v>2</v>
-      </c>
-      <c r="E21" s="105">
-        <v>1</v>
-      </c>
-      <c r="F21" s="105">
-        <v>3</v>
-      </c>
-      <c r="G21" s="105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="113">
-        <v>10</v>
-      </c>
-      <c r="E22" s="113">
-        <v>2</v>
-      </c>
-      <c r="F22" s="113">
-        <v>4</v>
-      </c>
-      <c r="G22" s="113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-    </row>
-    <row r="24" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
-      <c r="B24" s="127" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-    </row>
-    <row r="25" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-    </row>
-    <row r="26" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
+      <c r="G26" s="105" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="129"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
     </row>
     <row r="28" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="129"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
     </row>
     <row r="29" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
     </row>
     <row r="32" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4297,15 +4850,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K53"/>
+  <dimension ref="B2:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
     <col min="3" max="4" width="7" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" customWidth="1"/>
@@ -4314,22 +4867,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -4344,20 +4897,20 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C5" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>4</v>
@@ -4365,13 +4918,13 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="C6" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>4</v>
@@ -4379,38 +4932,38 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="C7" s="13">
         <v>7</v>
       </c>
       <c r="D7" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>165</v>
+      <c r="B8" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="C9" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4421,10 +4974,10 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C10" s="13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -4435,10 +4988,10 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C11" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
@@ -4449,10 +5002,10 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C12" s="13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="13">
         <v>2</v>
@@ -4462,848 +5015,1033 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="B13" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="111">
+        <v>6</v>
+      </c>
+      <c r="D13" s="111">
+        <v>1</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="111">
+        <v>8</v>
+      </c>
+      <c r="D14" s="111">
         <v>2</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="13">
-        <v>6</v>
-      </c>
-      <c r="D14" s="13">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>98</v>
+      <c r="E14" s="111" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="13">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>98</v>
+      <c r="B15" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="111">
+        <v>4</v>
+      </c>
+      <c r="D15" s="111">
+        <v>1</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="13">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="13">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13">
-        <v>2</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="13">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="83">
+      <c r="C16" s="83">
         <f>SUM(C5:C13)</f>
-        <v>74</v>
-      </c>
-      <c r="D19" s="83">
+        <v>53</v>
+      </c>
+      <c r="D16" s="83">
         <f>SUM(D5:D13)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="161" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="G21" s="161" t="s">
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="153" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="111">
+        <v>6</v>
+      </c>
+      <c r="D21" s="111">
+        <v>2</v>
+      </c>
+      <c r="E21" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="111">
+        <v>6</v>
+      </c>
+      <c r="D22" s="111">
+        <v>2</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="154" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="111">
+        <v>6</v>
+      </c>
+      <c r="D23" s="111">
+        <v>2</v>
+      </c>
+      <c r="E23" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="153" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="111">
+        <v>11</v>
+      </c>
+      <c r="D24" s="111">
+        <v>1</v>
+      </c>
+      <c r="E24" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="111">
+        <v>11</v>
+      </c>
+      <c r="D25" s="111">
+        <v>1</v>
+      </c>
+      <c r="E25" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="111">
+        <v>11</v>
+      </c>
+      <c r="D26" s="111">
+        <v>1</v>
+      </c>
+      <c r="E26" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="111">
         <v>8</v>
       </c>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="D27" s="111">
+        <v>1</v>
+      </c>
+      <c r="E27" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="111">
+        <v>8</v>
+      </c>
+      <c r="D28" s="111">
+        <v>1</v>
+      </c>
+      <c r="E28" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="111">
+        <v>8</v>
+      </c>
+      <c r="D29" s="111">
+        <v>1</v>
+      </c>
+      <c r="E29" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="111">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="D30" s="111">
+        <v>2</v>
+      </c>
+      <c r="E30" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="111">
+        <v>6</v>
+      </c>
+      <c r="D31" s="111">
+        <v>2</v>
+      </c>
+      <c r="E31" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="111">
+        <v>6</v>
+      </c>
+      <c r="D32" s="111">
+        <v>2</v>
+      </c>
+      <c r="E32" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="111">
+        <v>3</v>
+      </c>
+      <c r="D33" s="111">
+        <v>1</v>
+      </c>
+      <c r="E33" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="154" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="111">
+        <v>3</v>
+      </c>
+      <c r="D34" s="111">
+        <v>1</v>
+      </c>
+      <c r="E34" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="111">
+        <v>3</v>
+      </c>
+      <c r="D35" s="111">
+        <v>1</v>
+      </c>
+      <c r="E35" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="111">
+        <v>6</v>
+      </c>
+      <c r="D36" s="111">
+        <v>1</v>
+      </c>
+      <c r="E36" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="111">
+        <v>6</v>
+      </c>
+      <c r="D37" s="111">
+        <v>1</v>
+      </c>
+      <c r="E37" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="111">
+        <v>6</v>
+      </c>
+      <c r="D38" s="111">
+        <v>1</v>
+      </c>
+      <c r="E38" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="111">
+        <v>6</v>
+      </c>
+      <c r="D39" s="111">
+        <v>2</v>
+      </c>
+      <c r="E39" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="155">
+        <v>6</v>
+      </c>
+      <c r="D40" s="155">
+        <v>2</v>
+      </c>
+      <c r="E40" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="156">
+        <v>6</v>
+      </c>
+      <c r="D41" s="156">
+        <v>2</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="156">
+        <v>9</v>
+      </c>
+      <c r="D42" s="157">
+        <v>3</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="155">
+        <v>9</v>
+      </c>
+      <c r="D43" s="155">
+        <v>3</v>
+      </c>
+      <c r="E43" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="111">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="115">
+      <c r="D44" s="111">
+        <v>1</v>
+      </c>
+      <c r="E44" s="159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="161">
         <v>9</v>
       </c>
-      <c r="D24" s="115">
-        <v>1</v>
-      </c>
-      <c r="E24" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="88">
-        <v>9</v>
-      </c>
-      <c r="I24" s="88">
-        <v>1</v>
-      </c>
-      <c r="J24" s="88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="115">
-        <v>9</v>
-      </c>
-      <c r="D25" s="115">
-        <v>1</v>
-      </c>
-      <c r="E25" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="88">
-        <v>7</v>
-      </c>
-      <c r="I25" s="88">
-        <v>1</v>
-      </c>
-      <c r="J25" s="88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="115">
-        <v>9</v>
-      </c>
-      <c r="D26" s="115">
-        <v>1</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="88">
-        <v>8</v>
-      </c>
-      <c r="I26" s="88">
-        <v>2</v>
-      </c>
-      <c r="J26" s="88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="115">
-        <v>7</v>
-      </c>
-      <c r="D27" s="115">
-        <v>1</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="116" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="88">
-        <v>8</v>
-      </c>
-      <c r="I27" s="88">
-        <v>2</v>
-      </c>
-      <c r="J27" s="88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="115">
-        <v>7</v>
-      </c>
-      <c r="D28" s="115">
-        <v>1</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="88">
-        <v>8</v>
-      </c>
-      <c r="I28" s="88">
-        <v>1</v>
-      </c>
-      <c r="J28" s="88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="115">
-        <v>7</v>
-      </c>
-      <c r="D29" s="115">
-        <v>1</v>
-      </c>
-      <c r="E29" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="88">
-        <v>7</v>
-      </c>
-      <c r="I29" s="88">
-        <v>2</v>
-      </c>
-      <c r="J29" s="88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="115">
-        <v>8</v>
-      </c>
-      <c r="D30" s="115">
-        <v>1</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="88">
-        <v>13</v>
-      </c>
-      <c r="I30" s="88">
-        <v>2</v>
-      </c>
-      <c r="J30" s="88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="115">
-        <v>8</v>
-      </c>
-      <c r="D31" s="115">
-        <v>1</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="88">
-        <v>11</v>
-      </c>
-      <c r="I31" s="88">
-        <v>2</v>
-      </c>
-      <c r="J31" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="115">
-        <v>7</v>
-      </c>
-      <c r="D32" s="115">
-        <v>1</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="88">
-        <v>7</v>
-      </c>
-      <c r="I32" s="88">
-        <v>2</v>
-      </c>
-      <c r="J32" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="115">
-        <v>7</v>
-      </c>
-      <c r="D33" s="115">
-        <v>1</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5">
-        <f>SUM(H24:H32)</f>
-        <v>78</v>
-      </c>
-      <c r="I33" s="5">
-        <f>SUM(I24:I32)</f>
-        <v>15</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="115">
-        <v>7</v>
-      </c>
-      <c r="D34" s="115">
-        <v>1</v>
-      </c>
-      <c r="E34" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="157" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="115">
-        <v>13</v>
-      </c>
-      <c r="D35" s="115">
-        <v>1</v>
-      </c>
-      <c r="E35" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="115">
-        <v>13</v>
-      </c>
-      <c r="D36" s="115">
-        <v>1</v>
-      </c>
-      <c r="E36" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="115">
-        <v>13</v>
-      </c>
-      <c r="D37" s="115">
-        <v>1</v>
-      </c>
-      <c r="E37" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="118">
-        <v>2</v>
-      </c>
-      <c r="I37" s="118">
-        <v>1</v>
-      </c>
-      <c r="J37" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="115">
-        <v>7</v>
-      </c>
-      <c r="D38" s="115">
-        <v>2</v>
-      </c>
-      <c r="E38" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="117" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="118">
-        <v>8</v>
-      </c>
-      <c r="I38" s="118">
-        <v>1</v>
-      </c>
-      <c r="J38" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="115">
-        <v>7</v>
-      </c>
-      <c r="D39" s="115">
-        <v>2</v>
-      </c>
-      <c r="E39" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="118">
-        <v>2</v>
-      </c>
-      <c r="I39" s="118">
-        <v>1</v>
-      </c>
-      <c r="J39" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="115">
-        <v>7</v>
-      </c>
-      <c r="D40" s="115">
-        <v>2</v>
-      </c>
-      <c r="E40" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="118">
-        <v>6</v>
-      </c>
-      <c r="I40" s="118">
-        <v>1</v>
-      </c>
-      <c r="J40" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="115">
-        <v>13</v>
-      </c>
-      <c r="D41" s="115">
-        <v>2</v>
-      </c>
-      <c r="E41" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="H41" s="118">
-        <v>2</v>
-      </c>
-      <c r="I41" s="118">
-        <v>1</v>
-      </c>
-      <c r="J41" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="115">
-        <v>13</v>
-      </c>
-      <c r="D42" s="115">
-        <v>2</v>
-      </c>
-      <c r="E42" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="118">
-        <v>6</v>
-      </c>
-      <c r="I42" s="118">
-        <v>1</v>
-      </c>
-      <c r="J42" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="89">
-        <v>13</v>
-      </c>
-      <c r="D43" s="89">
-        <v>2</v>
-      </c>
-      <c r="E43" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="H43" s="118">
-        <v>2</v>
-      </c>
-      <c r="I43" s="118">
-        <v>1</v>
-      </c>
-      <c r="J43" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="93">
-        <v>11</v>
-      </c>
-      <c r="D44" s="93">
-        <v>2</v>
-      </c>
-      <c r="E44" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="118">
-        <v>12</v>
-      </c>
-      <c r="I44" s="118">
-        <v>1</v>
-      </c>
-      <c r="J44" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="93">
-        <v>11</v>
-      </c>
-      <c r="D45" s="87">
-        <v>2</v>
-      </c>
-      <c r="E45" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="H45" s="118">
-        <v>2</v>
-      </c>
-      <c r="I45" s="118">
-        <v>1</v>
-      </c>
-      <c r="J45" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="83">
-        <f>SUM(C24:C45)</f>
-        <v>206</v>
-      </c>
-      <c r="D46" s="83">
-        <f>SUM(D24:D45)</f>
-        <v>30</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="G46" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="118">
-        <v>6</v>
-      </c>
-      <c r="I46" s="118">
-        <v>2</v>
-      </c>
-      <c r="J46" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="G47" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="H47" s="118">
-        <v>2</v>
-      </c>
-      <c r="I47" s="118">
-        <v>1</v>
-      </c>
-      <c r="J47" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="D45" s="161">
+        <v>1</v>
+      </c>
+      <c r="E45" s="159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="161">
+        <v>5</v>
+      </c>
+      <c r="D46" s="161">
+        <v>1</v>
+      </c>
+      <c r="E46" s="159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="161">
+        <v>5</v>
+      </c>
+      <c r="D47" s="161">
+        <v>1</v>
+      </c>
+      <c r="E47" s="159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="83">
+        <f>SUM(C21:C47)</f>
+        <v>182</v>
+      </c>
+      <c r="D48" s="83">
+        <f>SUM(D21:D47)</f>
+        <v>40</v>
+      </c>
       <c r="E48" s="5"/>
-      <c r="G48" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" s="118">
-        <v>12</v>
-      </c>
-      <c r="I48" s="118">
-        <v>2</v>
-      </c>
-      <c r="J48" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="G49" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="H49" s="118">
-        <v>2</v>
-      </c>
-      <c r="I49" s="118">
-        <v>1</v>
-      </c>
-      <c r="J49" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="G50" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="H50" s="118">
-        <v>10</v>
-      </c>
-      <c r="I50" s="118">
-        <v>2</v>
-      </c>
-      <c r="J50" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="H51" s="54">
-        <f>SUM(H37:H50)</f>
-        <v>74</v>
-      </c>
-      <c r="I51" s="54">
-        <f>SUM(I37:I50)</f>
-        <v>17</v>
-      </c>
-      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K53" s="4"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="111">
+        <v>7</v>
+      </c>
+      <c r="D57" s="111">
+        <v>2</v>
+      </c>
+      <c r="E57" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="111">
+        <v>12</v>
+      </c>
+      <c r="D58" s="111">
+        <v>1</v>
+      </c>
+      <c r="E58" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="111">
+        <v>9</v>
+      </c>
+      <c r="D59" s="111">
+        <v>2</v>
+      </c>
+      <c r="E59" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="111">
+        <v>7</v>
+      </c>
+      <c r="D60" s="111">
+        <v>2</v>
+      </c>
+      <c r="E60" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="111">
+        <v>7</v>
+      </c>
+      <c r="D61" s="111">
+        <v>1</v>
+      </c>
+      <c r="E61" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="162" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="111">
+        <v>8</v>
+      </c>
+      <c r="D62" s="111">
+        <v>1</v>
+      </c>
+      <c r="E62" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="162" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="111">
+        <v>10</v>
+      </c>
+      <c r="D63" s="111">
+        <v>1</v>
+      </c>
+      <c r="E63" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5">
+        <f>SUM(C57:C63)</f>
+        <v>60</v>
+      </c>
+      <c r="D64" s="5">
+        <f>SUM(D57:D63)</f>
+        <v>10</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="144"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="164">
+        <v>7</v>
+      </c>
+      <c r="D70" s="164">
+        <v>2</v>
+      </c>
+      <c r="E70" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="163" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="164">
+        <v>7</v>
+      </c>
+      <c r="D71" s="164">
+        <v>2</v>
+      </c>
+      <c r="E71" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="164">
+        <v>12</v>
+      </c>
+      <c r="D72" s="164">
+        <v>1</v>
+      </c>
+      <c r="E72" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="164">
+        <v>12</v>
+      </c>
+      <c r="D73" s="164">
+        <v>1</v>
+      </c>
+      <c r="E73" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="164">
+        <v>9</v>
+      </c>
+      <c r="D74" s="164">
+        <v>1</v>
+      </c>
+      <c r="E74" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="163" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="164">
+        <v>9</v>
+      </c>
+      <c r="D75" s="164">
+        <v>1</v>
+      </c>
+      <c r="E75" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="163" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="164">
+        <v>7</v>
+      </c>
+      <c r="D76" s="164">
+        <v>2</v>
+      </c>
+      <c r="E76" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="163" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="164">
+        <v>7</v>
+      </c>
+      <c r="D77" s="164">
+        <v>2</v>
+      </c>
+      <c r="E77" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="163" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="164">
+        <v>4</v>
+      </c>
+      <c r="D78" s="164">
+        <v>1</v>
+      </c>
+      <c r="E78" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="163" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="164">
+        <v>4</v>
+      </c>
+      <c r="D79" s="164">
+        <v>1</v>
+      </c>
+      <c r="E79" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="164">
+        <v>7</v>
+      </c>
+      <c r="D80" s="164">
+        <v>1</v>
+      </c>
+      <c r="E80" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="163" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="164">
+        <v>7</v>
+      </c>
+      <c r="D81" s="164">
+        <v>1</v>
+      </c>
+      <c r="E81" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="163" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="164">
+        <v>7</v>
+      </c>
+      <c r="D82" s="164">
+        <v>2</v>
+      </c>
+      <c r="E82" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="163" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" s="164">
+        <v>7</v>
+      </c>
+      <c r="D83" s="164">
+        <v>2</v>
+      </c>
+      <c r="E83" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="164">
+        <v>10</v>
+      </c>
+      <c r="D84" s="164">
+        <v>3</v>
+      </c>
+      <c r="E84" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="164">
+        <v>10</v>
+      </c>
+      <c r="D85" s="164">
+        <v>3</v>
+      </c>
+      <c r="E85" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="164">
+        <v>8</v>
+      </c>
+      <c r="D86" s="164">
+        <v>1</v>
+      </c>
+      <c r="E86" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="165" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="166">
+        <v>8</v>
+      </c>
+      <c r="D87" s="166">
+        <v>1</v>
+      </c>
+      <c r="E87" s="166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="163" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="164">
+        <v>10</v>
+      </c>
+      <c r="D88" s="164">
+        <v>1</v>
+      </c>
+      <c r="E88" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="165" t="s">
+        <v>221</v>
+      </c>
+      <c r="C89" s="166">
+        <v>10</v>
+      </c>
+      <c r="D89" s="166">
+        <v>1</v>
+      </c>
+      <c r="E89" s="166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="163" t="s">
+        <v>222</v>
+      </c>
+      <c r="C90" s="164">
+        <v>6</v>
+      </c>
+      <c r="D90" s="164">
+        <v>1</v>
+      </c>
+      <c r="E90" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="163" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="164">
+        <v>6</v>
+      </c>
+      <c r="D91" s="164">
+        <v>1</v>
+      </c>
+      <c r="E91" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="54">
+        <f>SUM(C70:C91)</f>
+        <v>174</v>
+      </c>
+      <c r="D92" s="54">
+        <f>SUM(D70:D91)</f>
+        <v>32</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B67:E67"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B54:E54"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
@@ -5315,13 +6053,14 @@
   <dimension ref="A3:G19"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5347,7 +6086,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="149" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -5368,7 +6107,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="163"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="18" t="s">
         <v>30</v>
       </c>
@@ -5387,12 +6126,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="164"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>26</v>
@@ -5402,11 +6141,11 @@
       </c>
       <c r="G6" s="21">
         <f t="shared" ref="G6:G18" si="0">SUM(F6*D6)</f>
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="151" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -5427,7 +6166,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="163"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="30" t="s">
         <v>30</v>
       </c>
@@ -5446,7 +6185,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="164"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="32" t="s">
         <v>31</v>
       </c>
@@ -5465,7 +6204,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="151" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -5486,12 +6225,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="163"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>26</v>
@@ -5501,16 +6240,16 @@
       </c>
       <c r="G11" s="37">
         <f>SUM(F11*D11)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="164"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="39">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>26</v>
@@ -5520,11 +6259,11 @@
       </c>
       <c r="G12" s="39">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="151" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -5545,12 +6284,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="163"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>26</v>
@@ -5560,16 +6299,16 @@
       </c>
       <c r="G14" s="25">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="164"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>26</v>
@@ -5578,11 +6317,11 @@
         <v>4</v>
       </c>
       <c r="G15" s="27">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="40" t="s">
@@ -5602,12 +6341,12 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="163"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>26</v>
@@ -5616,16 +6355,16 @@
         <v>4</v>
       </c>
       <c r="G17" s="43">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="164"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="45">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>26</v>
@@ -5635,20 +6374,20 @@
       </c>
       <c r="G18" s="45">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="17">
         <f>SUM(G4:G18)</f>
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5667,10 +6406,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N23"/>
+  <dimension ref="A4:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,9 +6419,10 @@
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>33</v>
       </c>
@@ -5690,23 +6430,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="48">
         <v>4</v>
       </c>
-      <c r="F5" s="170" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="171"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
+      <c r="F5" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="168"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>36</v>
       </c>
@@ -5714,17 +6454,17 @@
         <v>0</v>
       </c>
       <c r="F6" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="74" t="s">
         <v>71</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>72</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>37</v>
       </c>
@@ -5744,7 +6484,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>38</v>
       </c>
@@ -5756,24 +6496,24 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="48">
         <v>2</v>
       </c>
-      <c r="F9" s="172" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="173"/>
-      <c r="H9" s="174"/>
+      <c r="F9" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="170"/>
+      <c r="H9" s="171"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>40</v>
       </c>
@@ -5781,20 +6521,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="56" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>58</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="177" t="s">
+        <v>234</v>
+      </c>
+      <c r="N10" s="177"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>41</v>
       </c>
@@ -5803,7 +6545,7 @@
       </c>
       <c r="F11" s="55">
         <f>'Puntos de Funcion'!G19</f>
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="G11" s="55">
         <f>G7</f>
@@ -5811,14 +6553,21 @@
       </c>
       <c r="H11" s="61">
         <f>PRODUCT(F11:G11)</f>
-        <v>230.92000000000002</v>
+        <v>246.56</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="N11" s="54">
+        <v>385.65</v>
+      </c>
+      <c r="P11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>42</v>
       </c>
@@ -5827,27 +6576,44 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="N12" s="54">
+        <v>380.59</v>
+      </c>
+      <c r="P12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="48">
         <v>2</v>
       </c>
-      <c r="F13" s="175" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
+      <c r="F13" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" s="54">
+        <v>380.59</v>
+      </c>
+      <c r="O13" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>44</v>
       </c>
@@ -5855,20 +6621,24 @@
         <v>3</v>
       </c>
       <c r="F14" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="H14" s="56" t="s">
         <v>57</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>58</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="178" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="178">
+        <v>1527.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>45</v>
       </c>
@@ -5877,21 +6647,21 @@
       </c>
       <c r="F15" s="55">
         <f>H11</f>
-        <v>230.92000000000002</v>
+        <v>246.56</v>
       </c>
       <c r="G15" s="55">
         <v>20</v>
       </c>
       <c r="H15" s="61">
         <f>PRODUCT(F15:G15)</f>
-        <v>4618.4000000000005</v>
+        <v>4931.2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>46</v>
       </c>
@@ -5910,12 +6680,12 @@
       <c r="B17" s="48">
         <v>0</v>
       </c>
-      <c r="F17" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
+      <c r="F17" s="173" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -5929,20 +6699,20 @@
         <v>2</v>
       </c>
       <c r="F18" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="H18" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="I18" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="57" t="s">
-        <v>64</v>
-      </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5955,7 +6725,7 @@
       </c>
       <c r="F19" s="58">
         <f>H15</f>
-        <v>4618.4000000000005</v>
+        <v>4931.2</v>
       </c>
       <c r="G19" s="58">
         <v>4</v>
@@ -5965,7 +6735,7 @@
       </c>
       <c r="I19" s="61">
         <f>F19/(G19/H19)</f>
-        <v>9236.8000000000011</v>
+        <v>9862.4</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -5973,44 +6743,45 @@
       <c r="N19" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="168"/>
+      <c r="F21" s="174" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="176"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F22" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="H22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="59" t="s">
-        <v>67</v>
-      </c>
       <c r="I22" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F23" s="60">
-        <v>800</v>
+        <f>N14</f>
+        <v>1527.42</v>
       </c>
       <c r="G23" s="60">
         <v>4</v>
       </c>
       <c r="H23" s="60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I23" s="61">
         <f>F23*G23*H23</f>
-        <v>22400</v>
+        <v>24438.720000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="F5:G5"/>
@@ -6018,8 +6789,111 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="180">
+        <v>1600</v>
+      </c>
+      <c r="C2" s="180">
+        <f>B4</f>
+        <v>24438.720000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="180">
+        <v>5990.4</v>
+      </c>
+      <c r="C3" s="181">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="180">
+        <f>'Nivel Influencia'!I23</f>
+        <v>24438.720000000001</v>
+      </c>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="181">
+        <v>912</v>
+      </c>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="179" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="54">
+        <v>0</v>
+      </c>
+      <c r="C9" s="180">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="54">
+        <v>4</v>
+      </c>
+      <c r="C10" s="180">
+        <v>5990.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="54">
+        <v>0</v>
+      </c>
+      <c r="C11" s="180">
+        <f>B4</f>
+        <v>24438.720000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="54">
+        <v>4</v>
+      </c>
+      <c r="C12" s="181">
+        <v>912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>